--- a/condition.xlsx
+++ b/condition.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11106"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniele/Desktop/file_daniele/eyetracking/psychopy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniele/Desktop/file_daniele/eyetracking/psychopy_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C40FCDA-9DFD-1345-8D87-2BD49645E39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41B257E-139C-6144-8AA9-238EE60248D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" xr2:uid="{A65B10A8-F286-DE43-812D-A9CEE16C99B9}"/>
+    <workbookView xWindow="520" yWindow="9000" windowWidth="36000" windowHeight="20800" xr2:uid="{A65B10A8-F286-DE43-812D-A9CEE16C99B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>img_dilemma1</t>
   </si>
@@ -62,23 +62,125 @@
     <t>images/dilemma_controllo_choice_2.jpg</t>
   </si>
   <si>
-    <t>audios/dilemma_controllo_main_2.mp3</t>
-  </si>
-  <si>
-    <t>audios/dilemma_controllo_choice_2.mp3</t>
-  </si>
-  <si>
     <t>durata_audio1</t>
   </si>
   <si>
     <t>durata_audio2</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_main_3.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_main_4.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_choice_3.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_main_1.jpg</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_main_18_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_main_16_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_main_7_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_main_5_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_main_4_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_main_3_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_main_2_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_main_1_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_choice_18_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_choice_16_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_choice_7_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_choice_5_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_choice_4_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_choice_3_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_choice_2_m.mp3</t>
+  </si>
+  <si>
+    <t>audios/dilemma_controllo_choice_1_m.mp3</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_main_5.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_main_7.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_main_16.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_main_18.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_choice_18.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_choice_16.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_choice_7.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_choice_5.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_choice_4.jpg</t>
+  </si>
+  <si>
+    <t>images/dilemma_controllo_choice_1.jpg</t>
+  </si>
+  <si>
+    <t>durata_cross_1</t>
+  </si>
+  <si>
+    <t>durata_cross_2</t>
+  </si>
+  <si>
+    <t>start_cross1</t>
+  </si>
+  <si>
+    <t>start_img1</t>
+  </si>
+  <si>
+    <t>fine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +191,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,7 +225,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -452,23 +560,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09835B8E-F7C3-9F4D-92F6-94DF85E07D37}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.6640625" customWidth="1"/>
-    <col min="5" max="6" width="28.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,45 +589,402 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>K2</f>
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <f>I2+K2</f>
+        <v>17.524000000000001</v>
+      </c>
+      <c r="H2" s="2">
+        <f>K2+I2+L2</f>
+        <v>20.524000000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>14.523999999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <f>K2+I2+L2+J2</f>
+        <v>22.509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F10" si="0">K3</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G9" si="1">I3+K3</f>
+        <v>31.263999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H9" si="2">K3+I3+L3</f>
+        <v>34.263999999999996</v>
+      </c>
+      <c r="I3" s="2">
+        <v>28.263999999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>9.1950000000000003</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M9" si="3">K3+I3+L3+J3</f>
+        <v>43.458999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>30.82</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>33.82</v>
+      </c>
+      <c r="I4" s="2">
+        <v>27.82</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3.7879999999999998</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="3"/>
+        <v>37.607999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>27.085000000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>30.085000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>24.085000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>33.011000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>18.594999999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>21.594999999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15.595000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.508</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="3"/>
+        <v>24.102999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>16.740000000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>19.740000000000002</v>
+      </c>
+      <c r="I7" s="2">
+        <v>13.74</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.351</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="3"/>
+        <v>22.091000000000001</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>26.719000000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>29.719000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>23.719000000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.907</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="3"/>
+        <v>31.626000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2">
-        <v>3</v>
-      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>31.263999999999999</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>34.263999999999996</v>
+      </c>
+      <c r="I9" s="2">
+        <v>28.263999999999999</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.5859999999999999</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="3"/>
+        <v>36.849999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J9">
+    <sortCondition ref="A1:A9"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>